--- a/public/assets/excel/orderwing/ownerclan/order_20240104.xlsx
+++ b/public/assets/excel/orderwing/ownerclan/order_20240104.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="159">
   <si>
     <t>일자</t>
   </si>
@@ -116,6 +116,138 @@
     <t>2024/01/04</t>
   </si>
   <si>
+    <t>주식회사 지오</t>
+  </si>
+  <si>
+    <t>031-427-5556</t>
+  </si>
+  <si>
+    <t>김상완(5F0F)</t>
+  </si>
+  <si>
+    <t>010-3236-3763</t>
+  </si>
+  <si>
+    <t>27662</t>
+  </si>
+  <si>
+    <t>충청북도 음성군 대소면 대동로692번길 176 대원기업(주)</t>
+  </si>
+  <si>
+    <t>3M 슈퍼그립 핫혹한용 겨울용장갑 JS47859 TYPE 1</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>6831</t>
+  </si>
+  <si>
+    <t>3500</t>
+  </si>
+  <si>
+    <t>71810</t>
+  </si>
+  <si>
+    <t>2024010411245995123A</t>
+  </si>
+  <si>
+    <t>WDADB4E</t>
+  </si>
+  <si>
+    <t>선불</t>
+  </si>
+  <si>
+    <t>XU4M6</t>
+  </si>
+  <si>
+    <t>제이팍컴퍼니</t>
+  </si>
+  <si>
+    <t>070-4685-3018</t>
+  </si>
+  <si>
+    <t>추지혜(995E)</t>
+  </si>
+  <si>
+    <t>010-4148-5775</t>
+  </si>
+  <si>
+    <t>53019</t>
+  </si>
+  <si>
+    <t>경남 통영시 광도면 죽림2로 31 (죽림리, 통영죽림3차 대우푸르지오) 306동 303호</t>
+  </si>
+  <si>
+    <t>내추럴 사이드뱅 앞머리 정수리가발</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>9893</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>12893</t>
+  </si>
+  <si>
+    <t>2024010411214810492A</t>
+  </si>
+  <si>
+    <t>WD68CB4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>LADAM</t>
+  </si>
+  <si>
+    <t>1967</t>
+  </si>
+  <si>
+    <t>맘이가</t>
+  </si>
+  <si>
+    <t>010-4864-7497</t>
+  </si>
+  <si>
+    <t>박정미(192BA)</t>
+  </si>
+  <si>
+    <t>0502-4125-6028</t>
+  </si>
+  <si>
+    <t>22682</t>
+  </si>
+  <si>
+    <t>인천광역시 서구 당하동 1029-7 그린프라자 501 입구 드림아트</t>
+  </si>
+  <si>
+    <t>비잔틴간판걸이 상부 화이트</t>
+  </si>
+  <si>
+    <t>1334</t>
+  </si>
+  <si>
+    <t>4334</t>
+  </si>
+  <si>
+    <t>2024010411065892998A</t>
+  </si>
+  <si>
+    <t>WD6A923</t>
+  </si>
+  <si>
+    <t>문 앞</t>
+  </si>
+  <si>
+    <t>2561</t>
+  </si>
+  <si>
     <t>주식회사 저스트큐</t>
   </si>
   <si>
@@ -137,15 +269,9 @@
     <t>세종 참숯옥 맥반석 찜질기 SH1100 무릎</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>36800</t>
   </si>
   <si>
-    <t>3000</t>
-  </si>
-  <si>
     <t>39800</t>
   </si>
   <si>
@@ -155,15 +281,9 @@
     <t>WD7D0A2</t>
   </si>
   <si>
-    <t>선불</t>
-  </si>
-  <si>
     <t xml:space="preserve">jqg_A09 / </t>
   </si>
   <si>
-    <t>LADAM</t>
-  </si>
-  <si>
     <t>215</t>
   </si>
   <si>
@@ -312,9 +432,6 @@
   </si>
   <si>
     <t>2787</t>
-  </si>
-  <si>
-    <t>3500</t>
   </si>
   <si>
     <t>11861</t>
@@ -713,7 +830,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AF7"/>
+  <dimension ref="A1:AF10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -838,7 +955,9 @@
       <c r="F2" t="s">
         <v>36</v>
       </c>
-      <c r="G2"/>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
       <c r="H2" t="s">
         <v>37</v>
       </c>
@@ -870,19 +989,15 @@
       <c r="R2" t="s">
         <v>46</v>
       </c>
-      <c r="S2" t="s">
-        <v>47</v>
-      </c>
+      <c r="S2"/>
       <c r="T2"/>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>48</v>
-      </c>
-      <c r="W2" t="s">
-        <v>49</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="W2"/>
       <c r="X2">
         <v>1</v>
       </c>
@@ -891,13 +1006,13 @@
       <c r="AA2"/>
       <c r="AB2"/>
       <c r="AC2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AF2"/>
     </row>
@@ -906,65 +1021,67 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
         <v>50</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>51</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>51</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>52</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>53</v>
       </c>
-      <c r="G3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>54</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3"/>
+      <c r="L3" t="s">
         <v>55</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>56</v>
       </c>
-      <c r="K3" t="s">
+      <c r="N3" t="s">
         <v>57</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>58</v>
       </c>
-      <c r="M3" t="s">
+      <c r="P3" t="s">
         <v>59</v>
       </c>
-      <c r="N3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>60</v>
-      </c>
-      <c r="P3" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>62</v>
       </c>
       <c r="R3" t="s">
         <v>46</v>
       </c>
       <c r="S3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="T3"/>
       <c r="U3">
         <v>1</v>
       </c>
-      <c r="V3"/>
-      <c r="W3"/>
+      <c r="V3" t="s">
+        <v>62</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
       <c r="X3">
         <v>1</v>
       </c>
@@ -973,13 +1090,13 @@
       <c r="AA3"/>
       <c r="AB3"/>
       <c r="AC3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AD3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AF3"/>
     </row>
@@ -1016,35 +1133,35 @@
       </c>
       <c r="K4"/>
       <c r="L4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" t="s">
         <v>71</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" t="s">
         <v>72</v>
       </c>
-      <c r="N4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>73</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>74</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>75</v>
       </c>
       <c r="R4" t="s">
         <v>46</v>
       </c>
       <c r="S4" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="T4"/>
       <c r="U4">
         <v>2</v>
       </c>
       <c r="V4" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="W4" t="s">
         <v>76</v>
@@ -1057,7 +1174,7 @@
       <c r="AA4"/>
       <c r="AB4"/>
       <c r="AC4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD4">
         <v>4</v>
@@ -1069,13 +1186,17 @@
     </row>
     <row r="5" spans="1:32">
       <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
         <v>77</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>78</v>
       </c>
-      <c r="C5"/>
-      <c r="D5"/>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
       <c r="E5" t="s">
         <v>79</v>
       </c>
@@ -1094,13 +1215,13 @@
       </c>
       <c r="K5"/>
       <c r="L5" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="M5" t="s">
         <v>84</v>
       </c>
       <c r="N5" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="O5" t="s">
         <v>85</v>
@@ -1114,16 +1235,18 @@
       <c r="R5" t="s">
         <v>46</v>
       </c>
-      <c r="S5"/>
+      <c r="S5" t="s">
+        <v>88</v>
+      </c>
       <c r="T5"/>
       <c r="U5">
         <v>3</v>
       </c>
       <c r="V5" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="W5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X5">
         <v>1</v>
@@ -1145,7 +1268,7 @@
     </row>
     <row r="6" spans="1:32">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
         <v>90</v>
@@ -1174,15 +1297,17 @@
       <c r="J6" t="s">
         <v>96</v>
       </c>
-      <c r="K6"/>
+      <c r="K6" t="s">
+        <v>97</v>
+      </c>
       <c r="L6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N6" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="O6" t="s">
         <v>100</v>
@@ -1203,9 +1328,7 @@
       <c r="U6">
         <v>4</v>
       </c>
-      <c r="V6" t="s">
-        <v>104</v>
-      </c>
+      <c r="V6"/>
       <c r="W6"/>
       <c r="X6">
         <v>1</v>
@@ -1215,81 +1338,81 @@
       <c r="AA6"/>
       <c r="AB6"/>
       <c r="AC6">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="AD6">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AE6">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AF6"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" t="s">
         <v>105</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" t="s">
         <v>106</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
         <v>107</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G7" t="s">
         <v>107</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
         <v>108</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
         <v>109</v>
       </c>
-      <c r="G7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>110</v>
-      </c>
-      <c r="I7" t="s">
-        <v>111</v>
-      </c>
-      <c r="J7" t="s">
-        <v>112</v>
       </c>
       <c r="K7"/>
       <c r="L7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M7" t="s">
+        <v>112</v>
+      </c>
+      <c r="N7" t="s">
+        <v>57</v>
+      </c>
+      <c r="O7" t="s">
         <v>113</v>
       </c>
-      <c r="M7" t="s">
+      <c r="P7" t="s">
         <v>114</v>
       </c>
-      <c r="N7" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>115</v>
-      </c>
-      <c r="P7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>117</v>
       </c>
       <c r="R7" t="s">
         <v>46</v>
       </c>
       <c r="S7" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="T7"/>
       <c r="U7">
         <v>5</v>
       </c>
       <c r="V7" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="W7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="X7">
         <v>1</v>
@@ -1299,15 +1422,257 @@
       <c r="AA7"/>
       <c r="AB7"/>
       <c r="AC7">
+        <v>4</v>
+      </c>
+      <c r="AD7">
+        <v>4</v>
+      </c>
+      <c r="AE7">
+        <v>4</v>
+      </c>
+      <c r="AF7"/>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8" t="s">
+        <v>121</v>
+      </c>
+      <c r="I8" t="s">
         <v>122</v>
       </c>
-      <c r="AD7">
+      <c r="J8" t="s">
+        <v>123</v>
+      </c>
+      <c r="K8"/>
+      <c r="L8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" t="s">
+        <v>124</v>
+      </c>
+      <c r="N8" t="s">
+        <v>57</v>
+      </c>
+      <c r="O8" t="s">
+        <v>125</v>
+      </c>
+      <c r="P8" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>127</v>
+      </c>
+      <c r="R8" t="s">
+        <v>46</v>
+      </c>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8">
+        <v>6</v>
+      </c>
+      <c r="V8" t="s">
+        <v>62</v>
+      </c>
+      <c r="W8" t="s">
+        <v>128</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AF8"/>
+    </row>
+    <row r="9" spans="1:32">
+      <c r="A9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I9" t="s">
+        <v>135</v>
+      </c>
+      <c r="J9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K9"/>
+      <c r="L9" t="s">
+        <v>137</v>
+      </c>
+      <c r="M9" t="s">
+        <v>138</v>
+      </c>
+      <c r="N9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" t="s">
+        <v>139</v>
+      </c>
+      <c r="P9" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>141</v>
+      </c>
+      <c r="R9" t="s">
+        <v>46</v>
+      </c>
+      <c r="S9" t="s">
+        <v>142</v>
+      </c>
+      <c r="T9"/>
+      <c r="U9">
+        <v>7</v>
+      </c>
+      <c r="V9" t="s">
+        <v>143</v>
+      </c>
+      <c r="W9"/>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9">
+        <v>21</v>
+      </c>
+      <c r="AD9">
+        <v>21</v>
+      </c>
+      <c r="AE9">
+        <v>21</v>
+      </c>
+      <c r="AF9"/>
+    </row>
+    <row r="10" spans="1:32">
+      <c r="A10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H10" t="s">
+        <v>149</v>
+      </c>
+      <c r="I10" t="s">
+        <v>150</v>
+      </c>
+      <c r="J10" t="s">
+        <v>151</v>
+      </c>
+      <c r="K10"/>
+      <c r="L10" t="s">
+        <v>152</v>
+      </c>
+      <c r="M10" t="s">
+        <v>153</v>
+      </c>
+      <c r="N10" t="s">
+        <v>57</v>
+      </c>
+      <c r="O10" t="s">
+        <v>154</v>
+      </c>
+      <c r="P10" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>156</v>
+      </c>
+      <c r="R10" t="s">
+        <v>46</v>
+      </c>
+      <c r="S10" t="s">
+        <v>157</v>
+      </c>
+      <c r="T10"/>
+      <c r="U10">
+        <v>8</v>
+      </c>
+      <c r="V10" t="s">
+        <v>62</v>
+      </c>
+      <c r="W10" t="s">
+        <v>158</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10">
         <v>122</v>
       </c>
-      <c r="AE7">
+      <c r="AD10">
         <v>122</v>
       </c>
-      <c r="AF7"/>
+      <c r="AE10">
+        <v>122</v>
+      </c>
+      <c r="AF10"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
